--- a/PCAcombined_predicted_variables_matrix_5.xlsx
+++ b/PCAcombined_predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,31 +440,13 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0.5358214299997055</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5358297369691598</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.5358253031575707</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5358277692285327</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.5358297577232762</v>
+        <v>0.5358238515124757</v>
       </c>
     </row>
     <row r="3">
@@ -472,16 +454,7 @@
         <v>0.5360854176921154</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5361199593514172</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5361191633920267</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5361176712259392</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.5361162412667658</v>
+        <v>0.5361093796861194</v>
       </c>
     </row>
     <row r="4">
@@ -489,16 +462,7 @@
         <v>0.5361159742474111</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5361496182610501</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.5361370747948682</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5361288743002514</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.5361232867443713</v>
+        <v>0.5361189826754114</v>
       </c>
     </row>
     <row r="5">
@@ -506,16 +470,7 @@
         <v>0.5358996136473078</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5359462843740866</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.535942052047914</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5359388575744045</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.5359364683838275</v>
+        <v>0.5359255987654736</v>
       </c>
     </row>
     <row r="6">
@@ -523,16 +478,7 @@
         <v>0.5360963738733859</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5360693075708228</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.536086683832614</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5360911808955414</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.5360927766659699</v>
+        <v>0.5360717907498493</v>
       </c>
     </row>
     <row r="7">
@@ -540,16 +486,7 @@
         <v>0.535743268898906</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5357338461697934</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.5357344773930411</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.5357356663391949</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.5357357426625158</v>
+        <v>0.5357595108327592</v>
       </c>
     </row>
     <row r="8">
@@ -557,16 +494,7 @@
         <v>0.5359634278295603</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5359492793069054</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5359271096944198</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.5359135702653142</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.5359049045303326</v>
+        <v>0.5359279055893371</v>
       </c>
     </row>
     <row r="9">
@@ -574,16 +502,7 @@
         <v>0.5357838478429303</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5357944799518061</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5357863145388756</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.5357812652977291</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.5357772251067869</v>
+        <v>0.5358096416720247</v>
       </c>
     </row>
     <row r="10">
@@ -591,16 +510,7 @@
         <v>0.5362042288600291</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5362143049429984</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5362084853208029</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.5362047740988799</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.5362023936692476</v>
+        <v>0.5362390822565332</v>
       </c>
     </row>
     <row r="11">
@@ -608,16 +518,7 @@
         <v>0.5358347420437518</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5358677893638802</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5358664573508524</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.535863978642785</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.5358614271992167</v>
+        <v>0.5358684627525899</v>
       </c>
     </row>
     <row r="12">
@@ -625,16 +526,7 @@
         <v>0.5358454205785632</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5359229851710311</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5359196573538456</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.5359160306963856</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.5359132618190471</v>
+        <v>0.5359084182056759</v>
       </c>
     </row>
     <row r="13">
@@ -642,16 +534,7 @@
         <v>0.5359250967032908</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5359396491688824</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5359412669242657</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.535938755184215</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.5359363945784392</v>
+        <v>0.5359646914905356</v>
       </c>
     </row>
     <row r="14">
@@ -659,16 +542,7 @@
         <v>0.5359084744852585</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5359974476524714</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.5359971966659011</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.5359921129533324</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.5359883397578675</v>
+        <v>0.5359881814296312</v>
       </c>
     </row>
     <row r="15">
@@ -676,16 +550,7 @@
         <v>0.5357668671552023</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5358659823117925</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.5358652766610155</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.5358646338542987</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.5358647648505782</v>
+        <v>0.5358954764948778</v>
       </c>
     </row>
     <row r="16">
@@ -693,16 +558,7 @@
         <v>0.5360650393884935</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5361517565270509</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.5361388781854677</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.5361302547654817</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.5361252016110645</v>
+        <v>0.5361593084116441</v>
       </c>
     </row>
     <row r="17">
@@ -710,16 +566,7 @@
         <v>0.5360917931214962</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5361784081350043</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.5361765761829985</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.5361810939306084</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.5361856072315349</v>
+        <v>0.5361829252454915</v>
       </c>
     </row>
     <row r="18">
@@ -727,16 +574,7 @@
         <v>0.5357301951149713</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5358181810182925</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.5358234313751521</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.5358291831686309</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.5358336466893789</v>
+        <v>0.5358559536951151</v>
       </c>
     </row>
     <row r="19">
@@ -744,16 +582,7 @@
         <v>0.5360155447028404</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5360992569136677</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.536114267135941</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.5361181302532572</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.5361196436083451</v>
+        <v>0.5361446130558798</v>
       </c>
     </row>
     <row r="20">
@@ -761,16 +590,7 @@
         <v>0.5360631065696253</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5360980420008098</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.5360801587238109</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.5360708101349693</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.5360660190634988</v>
+        <v>0.5360885271507916</v>
       </c>
     </row>
     <row r="21">
@@ -778,16 +598,7 @@
         <v>0.5362165128249511</v>
       </c>
       <c r="B21" t="n">
-        <v>0.536279481296951</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.5362701292591754</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.5362609636217369</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.5362552728313822</v>
+        <v>0.536262712094283</v>
       </c>
     </row>
     <row r="22">
@@ -795,16 +606,7 @@
         <v>0.5360619938204741</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5361074894561508</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.5361076145130262</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.5361058740882372</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.536105141470133</v>
+        <v>0.5361031503322273</v>
       </c>
     </row>
     <row r="23">
@@ -812,16 +614,7 @@
         <v>0.535780270533593</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5358507947352397</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.5358536051596838</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.5358516144563585</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.5358502566723798</v>
+        <v>0.5358395530837579</v>
       </c>
     </row>
     <row r="24">
@@ -829,16 +622,7 @@
         <v>0.535747801876695</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5368378426102438</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.536710820944536</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.53667518247901</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.5366765568111518</v>
+        <v>0.5362851026851529</v>
       </c>
     </row>
     <row r="25">
@@ -846,16 +630,7 @@
         <v>0.5361431271047817</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5361001746162788</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.5361197997710964</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.5361367967367762</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.5361498039152456</v>
+        <v>0.5361438636367744</v>
       </c>
     </row>
     <row r="26">
@@ -863,16 +638,7 @@
         <v>0.5358389914077656</v>
       </c>
       <c r="B26" t="n">
-        <v>0.53597711471847</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.5360077235475186</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.5360220901839409</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.536032390221983</v>
+        <v>0.5359514658180746</v>
       </c>
     </row>
     <row r="27">
@@ -880,16 +646,7 @@
         <v>0.5359386909347051</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5358712614068265</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.5359139770462277</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.5359449146579059</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.5359668646288226</v>
+        <v>0.5359313249656217</v>
       </c>
     </row>
     <row r="28">
@@ -897,16 +654,7 @@
         <v>0.5362768095988584</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5363894163484277</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.5364063897704604</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.5364276931991461</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.5364453114564723</v>
+        <v>0.5363545051510435</v>
       </c>
     </row>
     <row r="29">
@@ -914,16 +662,7 @@
         <v>0.5357621839138255</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5364938698150371</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.5365765085699671</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.5366614132708251</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.5367298991848035</v>
+        <v>0.5366249417735311</v>
       </c>
     </row>
     <row r="30">
@@ -931,16 +670,7 @@
         <v>0.5361821776329259</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5362173994649846</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.5362539648170517</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.5362886394548643</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.5363148222115379</v>
+        <v>0.5362849285271666</v>
       </c>
     </row>
     <row r="31">
@@ -948,16 +678,7 @@
         <v>0.5356577298267886</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5355519925565912</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.5356214822143329</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.5356606513991925</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.5356851308980306</v>
+        <v>0.5356816524774867</v>
       </c>
     </row>
     <row r="32">
@@ -965,16 +686,7 @@
         <v>0.5362803254436382</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5362070058165236</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.5362448681726296</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.5362700270330653</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.5362870378019022</v>
+        <v>0.5362940709814586</v>
       </c>
     </row>
     <row r="33">
@@ -982,16 +694,7 @@
         <v>0.5363621259980937</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5363372489575612</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.5363690984488196</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.5363887867640099</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.5364018145872836</v>
+        <v>0.5364291394151116</v>
       </c>
     </row>
     <row r="34">
@@ -999,16 +702,7 @@
         <v>0.5354510195802157</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5354274319531237</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.5354354166408107</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.5354483967796941</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.5354588744259767</v>
+        <v>0.5354611936240269</v>
       </c>
     </row>
     <row r="35">
@@ -1016,16 +710,7 @@
         <v>0.5364625678461435</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5364748558684349</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.5364713677162721</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.5364704500753968</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.5364702313430807</v>
+        <v>0.5364641983719224</v>
       </c>
     </row>
     <row r="36">
@@ -1033,16 +718,7 @@
         <v>0.5364773609688536</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5364491879812844</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.5364488328339694</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.5364504276602784</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.5364517301108489</v>
+        <v>0.536460259006542</v>
       </c>
     </row>
     <row r="37">
@@ -1050,16 +726,7 @@
         <v>0.5364726769839966</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5364753308012656</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.5364550137087786</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.5364450387670157</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.5364393108063757</v>
+        <v>0.53645456685983</v>
       </c>
     </row>
     <row r="38">
@@ -1067,16 +734,7 @@
         <v>0.5363770607198591</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5363439216608634</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.5363542865711212</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.5363614823328208</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.536365987221825</v>
+        <v>0.5363695498031517</v>
       </c>
     </row>
     <row r="39">
@@ -1084,16 +742,7 @@
         <v>0.5363811190137648</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5363631979649818</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.5363546070857701</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.5363501885099874</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.5363475553063378</v>
+        <v>0.5363682192939797</v>
       </c>
     </row>
     <row r="40">
@@ -1101,16 +750,7 @@
         <v>0.5364912336848037</v>
       </c>
       <c r="B40" t="n">
-        <v>0.536470196034187</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.5364613356358084</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.5364552515149231</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.5364513168581293</v>
+        <v>0.5364646365324554</v>
       </c>
     </row>
     <row r="41">
@@ -1118,16 +758,7 @@
         <v>0.536322712602825</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5363250331425367</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.5363225636968363</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.5363219881066253</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.5363217337967497</v>
+        <v>0.5363148666703912</v>
       </c>
     </row>
     <row r="42">
@@ -1135,16 +766,7 @@
         <v>0.53634744576136</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5363577750807758</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.5363551874751327</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.5363567944949242</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.5363583388286381</v>
+        <v>0.5363750266056851</v>
       </c>
     </row>
     <row r="43">
@@ -1152,16 +774,7 @@
         <v>0.5364020548101565</v>
       </c>
       <c r="B43" t="n">
-        <v>0.536391785750658</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.5363874331766819</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.536386981052374</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.5363871560705679</v>
+        <v>0.5363976080005006</v>
       </c>
     </row>
     <row r="44">
@@ -1169,16 +782,7 @@
         <v>0.536391082978449</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5364045341258324</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.536398901154816</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.5363964780977127</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.5363950267263243</v>
+        <v>0.5364206910473903</v>
       </c>
     </row>
     <row r="45">
@@ -1186,16 +790,7 @@
         <v>0.5364792897696923</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5364454564464713</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.536430033241624</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.5364232370011253</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.5364192844740232</v>
+        <v>0.5364582183934868</v>
       </c>
     </row>
     <row r="46">
@@ -1203,16 +798,7 @@
         <v>0.5351762913633445</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5352015228950482</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.535184431555592</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.5351758341198998</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.5351705618163995</v>
+        <v>0.5352385629746671</v>
       </c>
     </row>
     <row r="47">
@@ -1220,16 +806,7 @@
         <v>0.5353562616856508</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5353659122281186</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.5353550915637303</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.5353499251753759</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.5353466257866281</v>
+        <v>0.5354109191607849</v>
       </c>
     </row>
     <row r="48">
@@ -1237,16 +814,7 @@
         <v>0.5354549472287251</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5354550274499793</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.5354447395728605</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.5354392128763621</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.5354354721246124</v>
+        <v>0.5354981347063579</v>
       </c>
     </row>
     <row r="49">
@@ -1254,16 +822,7 @@
         <v>0.5355884305897973</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5356021439763839</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.5355899988010721</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.5355834017180848</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.5355791477676428</v>
+        <v>0.5356288248558073</v>
       </c>
     </row>
     <row r="50">
@@ -1271,16 +830,7 @@
         <v>0.5358876661386318</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5359184547622525</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.5359166971704463</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.5359154613198024</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.5359145461104348</v>
+        <v>0.5359511685246713</v>
       </c>
     </row>
     <row r="51">
@@ -1288,16 +838,7 @@
         <v>0.5354855678799625</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5354908532629373</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.5354730510235076</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.535464355773912</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.5354590016421269</v>
+        <v>0.5355060303488404</v>
       </c>
     </row>
     <row r="52">
@@ -1305,16 +846,7 @@
         <v>0.5354855678799625</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5354908532629373</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.5354730510235076</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.535464355773912</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.5354590016421269</v>
+        <v>0.5355060303488404</v>
       </c>
     </row>
     <row r="53">
@@ -1322,16 +854,7 @@
         <v>0.5352961180759109</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5352869384010958</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.5352769623567588</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.535273208454613</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.5352707801889784</v>
+        <v>0.5353487751291207</v>
       </c>
     </row>
     <row r="54">
@@ -1339,16 +862,7 @@
         <v>0.5358652308937485</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5358791021893535</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.5358693236330275</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.5358639839647358</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.5358606684701165</v>
+        <v>0.5358998750394122</v>
       </c>
     </row>
     <row r="55">
@@ -1356,16 +870,7 @@
         <v>0.5353546049771756</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5353409745210252</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.5353378351063613</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.5353351706392212</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.53533298757562</v>
+        <v>0.5353970395149573</v>
       </c>
     </row>
     <row r="56">
@@ -1373,16 +878,7 @@
         <v>0.535392226417307</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5354329371439139</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.5354194346841662</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.5354107178863842</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.5354052991860661</v>
+        <v>0.5354563583341314</v>
       </c>
     </row>
     <row r="57">
@@ -1390,16 +886,7 @@
         <v>0.5353431440921681</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5353690511016581</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.5353598985182673</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.5353553752713652</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.5353525553973186</v>
+        <v>0.5354316587708153</v>
       </c>
     </row>
     <row r="58">
@@ -1407,16 +894,7 @@
         <v>0.5352605841281759</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5352981121521325</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.5352888829137723</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.5352823507329518</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.5352779834596817</v>
+        <v>0.5353318858047691</v>
       </c>
     </row>
     <row r="59">
@@ -1424,16 +902,7 @@
         <v>0.5354897861617599</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5355108201835062</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.5354951520886894</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.5354857895428051</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.5354798144820347</v>
+        <v>0.5355280261352371</v>
       </c>
     </row>
     <row r="60">
@@ -1441,16 +910,7 @@
         <v>0.5357216419159345</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5357221257990927</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.5357117274781197</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.5357049629115412</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.5357005960555985</v>
+        <v>0.5357263621236518</v>
       </c>
     </row>
     <row r="61">
@@ -1458,16 +918,7 @@
         <v>0.5362009050088037</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5362015808115059</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.5361988281099282</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.5361969758747007</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.5361957182813579</v>
+        <v>0.5362229381312084</v>
       </c>
     </row>
     <row r="62">
@@ -1475,16 +926,7 @@
         <v>0.5352274100177105</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5351535123730116</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.5351766610795815</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.5351846152136195</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.5351878580704976</v>
+        <v>0.5352824756852338</v>
       </c>
     </row>
     <row r="63">
@@ -1492,16 +934,7 @@
         <v>0.5357370552102004</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5357237285227968</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0.5356886424659082</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.5356694756017534</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0.5356574610432892</v>
+        <v>0.5356735115751214</v>
       </c>
     </row>
     <row r="64">
@@ -1509,16 +942,7 @@
         <v>0.5355008632552016</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5354405123109474</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0.5354421347309618</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.5354433604903295</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.535443242795494</v>
+        <v>0.5355006050343937</v>
       </c>
     </row>
     <row r="65">
@@ -1526,16 +950,7 @@
         <v>0.535930239943828</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5359737059114349</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.5359559061220691</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.5359457186912758</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0.5359396323327204</v>
+        <v>0.535960418288416</v>
       </c>
     </row>
     <row r="66">
@@ -1543,16 +958,7 @@
         <v>0.535500571083152</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5354613568249647</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0.5354681732816701</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.5354668813705608</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0.5354648714760561</v>
+        <v>0.5355285028881346</v>
       </c>
     </row>
     <row r="67">
@@ -1560,16 +966,7 @@
         <v>0.5353834558947583</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5354728221181493</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0.5354667005744003</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.535459560339546</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0.5354549270346015</v>
+        <v>0.5355210775060133</v>
       </c>
     </row>
     <row r="68">
@@ -1577,16 +974,7 @@
         <v>-0.9537666564217541</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.9653238882313835</v>
-      </c>
-      <c r="C68" t="n">
-        <v>-0.9734609253245707</v>
-      </c>
-      <c r="D68" t="n">
-        <v>-0.9792457894338812</v>
-      </c>
-      <c r="E68" t="n">
-        <v>-0.9837409339620722</v>
+        <v>-0.9492832687400758</v>
       </c>
     </row>
     <row r="69">
@@ -1594,16 +982,7 @@
         <v>-0.9695875536097117</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.9849327798630929</v>
-      </c>
-      <c r="C69" t="n">
-        <v>-0.9919391041868291</v>
-      </c>
-      <c r="D69" t="n">
-        <v>-0.9972387351527962</v>
-      </c>
-      <c r="E69" t="n">
-        <v>-1.001484931476308</v>
+        <v>-0.9645473972299093</v>
       </c>
     </row>
     <row r="70">
@@ -1611,16 +990,7 @@
         <v>-0.9556289903132925</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.9639707736837713</v>
-      </c>
-      <c r="C70" t="n">
-        <v>-0.9734573503811677</v>
-      </c>
-      <c r="D70" t="n">
-        <v>-0.9801822290737524</v>
-      </c>
-      <c r="E70" t="n">
-        <v>-0.9852587492099539</v>
+        <v>-0.9512726269995847</v>
       </c>
     </row>
     <row r="71">
@@ -1628,16 +998,7 @@
         <v>-0.9772947872112167</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.9820092479254737</v>
-      </c>
-      <c r="C71" t="n">
-        <v>-0.989164047222441</v>
-      </c>
-      <c r="D71" t="n">
-        <v>-0.9942609813446821</v>
-      </c>
-      <c r="E71" t="n">
-        <v>-0.9982642676051773</v>
+        <v>-0.9617234328579791</v>
       </c>
     </row>
     <row r="72">
@@ -1645,16 +1006,7 @@
         <v>-0.9834125699552501</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.9950488016030343</v>
-      </c>
-      <c r="C72" t="n">
-        <v>-1.002313783046377</v>
-      </c>
-      <c r="D72" t="n">
-        <v>-1.007402457768852</v>
-      </c>
-      <c r="E72" t="n">
-        <v>-1.011449332876257</v>
+        <v>-0.9778626316643401</v>
       </c>
     </row>
     <row r="73">
@@ -1662,16 +1014,7 @@
         <v>-0.9349356931218796</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.9444282668195606</v>
-      </c>
-      <c r="C73" t="n">
-        <v>-0.9545506537212672</v>
-      </c>
-      <c r="D73" t="n">
-        <v>-0.9614693217409391</v>
-      </c>
-      <c r="E73" t="n">
-        <v>-0.9665937165834257</v>
+        <v>-0.9345267966897988</v>
       </c>
     </row>
     <row r="74">
@@ -1679,16 +1022,7 @@
         <v>-0.9263549553204451</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.9331278113484091</v>
-      </c>
-      <c r="C74" t="n">
-        <v>-0.9436344727073176</v>
-      </c>
-      <c r="D74" t="n">
-        <v>-0.950890971558868</v>
-      </c>
-      <c r="E74" t="n">
-        <v>-0.9562305665876967</v>
+        <v>-0.9251787817292101</v>
       </c>
     </row>
     <row r="75">
@@ -1696,16 +1030,7 @@
         <v>-0.9384826790518965</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.955155391370485</v>
-      </c>
-      <c r="C75" t="n">
-        <v>-0.9635358461953212</v>
-      </c>
-      <c r="D75" t="n">
-        <v>-0.9694360929720302</v>
-      </c>
-      <c r="E75" t="n">
-        <v>-0.9739135798564478</v>
+        <v>-0.9398233468353965</v>
       </c>
     </row>
     <row r="76">
@@ -1713,16 +1038,7 @@
         <v>-0.9546111645560365</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.9702013130369107</v>
-      </c>
-      <c r="C76" t="n">
-        <v>-0.9768625176301192</v>
-      </c>
-      <c r="D76" t="n">
-        <v>-0.9821818171123304</v>
-      </c>
-      <c r="E76" t="n">
-        <v>-0.9864503945514402</v>
+        <v>-0.9484559924209793</v>
       </c>
     </row>
     <row r="77">
@@ -1730,16 +1046,7 @@
         <v>-0.9668290067419865</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.976601983086712</v>
-      </c>
-      <c r="C77" t="n">
-        <v>-0.9862713126327252</v>
-      </c>
-      <c r="D77" t="n">
-        <v>-0.9929066445843917</v>
-      </c>
-      <c r="E77" t="n">
-        <v>-0.9979027686785606</v>
+        <v>-0.9640612600037802</v>
       </c>
     </row>
     <row r="78">
@@ -1747,16 +1054,7 @@
         <v>-0.9806333180920007</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.9785132369021607</v>
-      </c>
-      <c r="C78" t="n">
-        <v>-0.9879769771770776</v>
-      </c>
-      <c r="D78" t="n">
-        <v>-0.9946183848545503</v>
-      </c>
-      <c r="E78" t="n">
-        <v>-0.9995829384448057</v>
+        <v>-0.9712728222026284</v>
       </c>
     </row>
     <row r="79">
@@ -1764,16 +1062,7 @@
         <v>-0.9849126452735659</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.9906334010887193</v>
-      </c>
-      <c r="C79" t="n">
-        <v>-1.000078671152282</v>
-      </c>
-      <c r="D79" t="n">
-        <v>-1.006557190960913</v>
-      </c>
-      <c r="E79" t="n">
-        <v>-1.011429225425348</v>
+        <v>-0.9774441920704157</v>
       </c>
     </row>
     <row r="80">
@@ -1781,16 +1070,7 @@
         <v>-0.9691220001487857</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.9777769782740542</v>
-      </c>
-      <c r="C80" t="n">
-        <v>-0.9867295055695545</v>
-      </c>
-      <c r="D80" t="n">
-        <v>-0.9932925367453316</v>
-      </c>
-      <c r="E80" t="n">
-        <v>-0.9983055215690527</v>
+        <v>-0.9654433901660853</v>
       </c>
     </row>
     <row r="81">
@@ -1798,16 +1078,7 @@
         <v>-0.9732991857807995</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.9823856712250818</v>
-      </c>
-      <c r="C81" t="n">
-        <v>-0.9881422540026708</v>
-      </c>
-      <c r="D81" t="n">
-        <v>-0.9928758057862956</v>
-      </c>
-      <c r="E81" t="n">
-        <v>-0.9967917518128365</v>
+        <v>-0.9615431531447112</v>
       </c>
     </row>
     <row r="82">
@@ -1815,16 +1086,7 @@
         <v>-0.9775365385883745</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.9790522878357739</v>
-      </c>
-      <c r="C82" t="n">
-        <v>-0.9901864044165156</v>
-      </c>
-      <c r="D82" t="n">
-        <v>-0.9973078362876205</v>
-      </c>
-      <c r="E82" t="n">
-        <v>-1.002483556661709</v>
+        <v>-0.9776679814079182</v>
       </c>
     </row>
     <row r="83">
@@ -1832,16 +1094,7 @@
         <v>-0.9813544229594614</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.983700131220587</v>
-      </c>
-      <c r="C83" t="n">
-        <v>-0.9921755799490904</v>
-      </c>
-      <c r="D83" t="n">
-        <v>-0.9982880302846016</v>
-      </c>
-      <c r="E83" t="n">
-        <v>-1.002963409653863</v>
+        <v>-0.9706638618229267</v>
       </c>
     </row>
     <row r="84">
@@ -1849,16 +1102,7 @@
         <v>-0.9698866541715406</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.9802737982099751</v>
-      </c>
-      <c r="C84" t="n">
-        <v>-0.98959880420956</v>
-      </c>
-      <c r="D84" t="n">
-        <v>-0.9963334726978015</v>
-      </c>
-      <c r="E84" t="n">
-        <v>-1.001440550306217</v>
+        <v>-0.967116380622829</v>
       </c>
     </row>
     <row r="85">
@@ -1866,16 +1110,7 @@
         <v>-0.9752572894842569</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.9792307186867125</v>
-      </c>
-      <c r="C85" t="n">
-        <v>-0.9887868905014272</v>
-      </c>
-      <c r="D85" t="n">
-        <v>-0.995660419597086</v>
-      </c>
-      <c r="E85" t="n">
-        <v>-1.000826555031153</v>
+        <v>-0.9686281355770761</v>
       </c>
     </row>
     <row r="86">
@@ -1883,16 +1118,7 @@
         <v>-0.9979048572617449</v>
       </c>
       <c r="B86" t="n">
-        <v>-1.002274837054829</v>
-      </c>
-      <c r="C86" t="n">
-        <v>-1.009731576931135</v>
-      </c>
-      <c r="D86" t="n">
-        <v>-1.015345239469464</v>
-      </c>
-      <c r="E86" t="n">
-        <v>-1.019717112458792</v>
+        <v>-0.9881440675668295</v>
       </c>
     </row>
     <row r="87">
@@ -1900,16 +1126,7 @@
         <v>-0.9691755333510894</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.974920780288093</v>
-      </c>
-      <c r="C87" t="n">
-        <v>-0.9836007997966214</v>
-      </c>
-      <c r="D87" t="n">
-        <v>-0.9898795982022088</v>
-      </c>
-      <c r="E87" t="n">
-        <v>-0.9946629242190492</v>
+        <v>-0.9643733532405609</v>
       </c>
     </row>
     <row r="88">
@@ -1917,16 +1134,7 @@
         <v>-0.8658381826251907</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.8306323393214491</v>
-      </c>
-      <c r="C88" t="n">
-        <v>-0.906684732765503</v>
-      </c>
-      <c r="D88" t="n">
-        <v>-0.9687113552471764</v>
-      </c>
-      <c r="E88" t="n">
-        <v>-1.016396712883752</v>
+        <v>-0.8912635526884423</v>
       </c>
     </row>
     <row r="89">
@@ -1934,16 +1142,7 @@
         <v>-3.105511880926732</v>
       </c>
       <c r="B89" t="n">
-        <v>-3.715933672267591</v>
-      </c>
-      <c r="C89" t="n">
-        <v>-3.582146434641285</v>
-      </c>
-      <c r="D89" t="n">
-        <v>-3.506627263922135</v>
-      </c>
-      <c r="E89" t="n">
-        <v>-3.473280250577381</v>
+        <v>-3.141967137423207</v>
       </c>
     </row>
     <row r="90">
@@ -1951,16 +1150,7 @@
         <v>-1.004865972384314</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.9827647748764765</v>
-      </c>
-      <c r="C90" t="n">
-        <v>-1.007384898245684</v>
-      </c>
-      <c r="D90" t="n">
-        <v>-1.030059468968327</v>
-      </c>
-      <c r="E90" t="n">
-        <v>-1.04783297400792</v>
+        <v>-1.03732308653745</v>
       </c>
     </row>
     <row r="91">
@@ -1968,16 +1158,7 @@
         <v>-5.942904491453729</v>
       </c>
       <c r="B91" t="n">
-        <v>-4.551445032026599</v>
-      </c>
-      <c r="C91" t="n">
-        <v>-4.8064215953236</v>
-      </c>
-      <c r="D91" t="n">
-        <v>-4.958712571258406</v>
-      </c>
-      <c r="E91" t="n">
-        <v>-5.055124968085264</v>
+        <v>-5.593207175461554</v>
       </c>
     </row>
     <row r="92">
@@ -1985,16 +1166,7 @@
         <v>-0.2031035523816568</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.5497528711653143</v>
-      </c>
-      <c r="C92" t="n">
-        <v>-0.5962861332094158</v>
-      </c>
-      <c r="D92" t="n">
-        <v>-0.6361845865222179</v>
-      </c>
-      <c r="E92" t="n">
-        <v>-0.6667938514790198</v>
+        <v>-0.5128803183673105</v>
       </c>
     </row>
     <row r="93">
@@ -2002,16 +1174,7 @@
         <v>-0.9083594157169972</v>
       </c>
       <c r="B93" t="n">
-        <v>-1.279733552536341</v>
-      </c>
-      <c r="C93" t="n">
-        <v>-1.046000753536791</v>
-      </c>
-      <c r="D93" t="n">
-        <v>-1.010673137931217</v>
-      </c>
-      <c r="E93" t="n">
-        <v>-1.018048972164702</v>
+        <v>-0.774914467807162</v>
       </c>
     </row>
     <row r="94">
@@ -2019,16 +1182,7 @@
         <v>-1.115586308931106</v>
       </c>
       <c r="B94" t="n">
-        <v>-1.185229980527682</v>
-      </c>
-      <c r="C94" t="n">
-        <v>-1.205195948779133</v>
-      </c>
-      <c r="D94" t="n">
-        <v>-1.219758035313815</v>
-      </c>
-      <c r="E94" t="n">
-        <v>-1.231155175893083</v>
+        <v>-1.176747422220106</v>
       </c>
     </row>
     <row r="95">
@@ -2036,16 +1190,7 @@
         <v>-0.1648684862013313</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.645099480608278</v>
-      </c>
-      <c r="C95" t="n">
-        <v>-0.8046684114303694</v>
-      </c>
-      <c r="D95" t="n">
-        <v>-0.8849135127324601</v>
-      </c>
-      <c r="E95" t="n">
-        <v>-0.9360256406859205</v>
+        <v>-0.3194285486295991</v>
       </c>
     </row>
     <row r="96">
@@ -2053,16 +1198,7 @@
         <v>-1.391944527406188</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.346871369834283</v>
-      </c>
-      <c r="C96" t="n">
-        <v>-1.406697647599236</v>
-      </c>
-      <c r="D96" t="n">
-        <v>-1.442430363644637</v>
-      </c>
-      <c r="E96" t="n">
-        <v>-1.470239851935106</v>
+        <v>-1.426142615764837</v>
       </c>
     </row>
   </sheetData>

--- a/PCAcombined_predicted_variables_matrix_5.xlsx
+++ b/PCAcombined_predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +440,12 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -448,6 +454,12 @@
       <c r="B2" t="n">
         <v>0.5358238515124757</v>
       </c>
+      <c r="C2" t="n">
+        <v>0.5358833616225295</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5359588722138436</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -456,6 +468,12 @@
       <c r="B3" t="n">
         <v>0.5361093796861194</v>
       </c>
+      <c r="C3" t="n">
+        <v>0.5361677693377603</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5362418250510054</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -464,6 +482,12 @@
       <c r="B4" t="n">
         <v>0.5361189826754114</v>
       </c>
+      <c r="C4" t="n">
+        <v>0.5361759167276281</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5362485332433424</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -472,6 +496,12 @@
       <c r="B5" t="n">
         <v>0.5359255987654736</v>
       </c>
+      <c r="C5" t="n">
+        <v>0.5359857430295392</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5360609104078018</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -480,6 +510,12 @@
       <c r="B6" t="n">
         <v>0.5360717907498493</v>
       </c>
+      <c r="C6" t="n">
+        <v>0.5361292867320471</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5362029535446682</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -488,6 +524,12 @@
       <c r="B7" t="n">
         <v>0.5357595108327592</v>
       </c>
+      <c r="C7" t="n">
+        <v>0.5358124794385303</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5358827259914226</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -496,6 +538,12 @@
       <c r="B8" t="n">
         <v>0.5359279055893371</v>
       </c>
+      <c r="C8" t="n">
+        <v>0.5359745220844452</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5360400748425396</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -504,6 +552,12 @@
       <c r="B9" t="n">
         <v>0.5358096416720247</v>
       </c>
+      <c r="C9" t="n">
+        <v>0.5358602700078244</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5359284245883452</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -512,6 +566,12 @@
       <c r="B10" t="n">
         <v>0.5362390822565332</v>
       </c>
+      <c r="C10" t="n">
+        <v>0.5362849657986475</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5363511187905625</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -520,6 +580,12 @@
       <c r="B11" t="n">
         <v>0.5358684627525899</v>
       </c>
+      <c r="C11" t="n">
+        <v>0.5359247620623265</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5359968852920933</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -528,6 +594,12 @@
       <c r="B12" t="n">
         <v>0.5359084182056759</v>
       </c>
+      <c r="C12" t="n">
+        <v>0.5359686398514198</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5360438234087581</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -536,6 +608,12 @@
       <c r="B13" t="n">
         <v>0.5359646914905356</v>
       </c>
+      <c r="C13" t="n">
+        <v>0.5360149002000982</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5360834304223847</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -544,6 +622,12 @@
       <c r="B14" t="n">
         <v>0.5359881814296312</v>
       </c>
+      <c r="C14" t="n">
+        <v>0.5360437856094294</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5361162261549053</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -552,6 +636,12 @@
       <c r="B15" t="n">
         <v>0.5358954764948778</v>
       </c>
+      <c r="C15" t="n">
+        <v>0.5359514701572587</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5360252479748621</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -560,6 +650,12 @@
       <c r="B16" t="n">
         <v>0.5361593084116441</v>
       </c>
+      <c r="C16" t="n">
+        <v>0.5362091919466792</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5362783215559405</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -568,6 +664,12 @@
       <c r="B17" t="n">
         <v>0.5361829252454915</v>
       </c>
+      <c r="C17" t="n">
+        <v>0.5362447842600165</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5363236389868689</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -576,6 +678,12 @@
       <c r="B18" t="n">
         <v>0.5358559536951151</v>
       </c>
+      <c r="C18" t="n">
+        <v>0.5359143072626867</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.5359902084450009</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -584,6 +692,12 @@
       <c r="B19" t="n">
         <v>0.5361446130558798</v>
       </c>
+      <c r="C19" t="n">
+        <v>0.5362030583735978</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5362778097125556</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -592,6 +706,12 @@
       <c r="B20" t="n">
         <v>0.5360885271507916</v>
       </c>
+      <c r="C20" t="n">
+        <v>0.5361395131511739</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.5362098916890069</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -600,6 +720,12 @@
       <c r="B21" t="n">
         <v>0.536262712094283</v>
       </c>
+      <c r="C21" t="n">
+        <v>0.536314977996003</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.536385492583471</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -608,6 +734,12 @@
       <c r="B22" t="n">
         <v>0.5361031503322273</v>
       </c>
+      <c r="C22" t="n">
+        <v>0.5361583945687532</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.5362316009930976</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -616,6 +748,12 @@
       <c r="B23" t="n">
         <v>0.5358395530837579</v>
       </c>
+      <c r="C23" t="n">
+        <v>0.5358994155277752</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.5359752985306557</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -624,6 +762,12 @@
       <c r="B24" t="n">
         <v>0.5362851026851529</v>
       </c>
+      <c r="C24" t="n">
+        <v>0.5364192058430239</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.5365646947411937</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -632,6 +776,12 @@
       <c r="B25" t="n">
         <v>0.5361438636367744</v>
       </c>
+      <c r="C25" t="n">
+        <v>0.5361910422236297</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.5362614843084099</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -640,6 +790,12 @@
       <c r="B26" t="n">
         <v>0.5359514658180746</v>
       </c>
+      <c r="C26" t="n">
+        <v>0.5360270830156617</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.5361162231138845</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -648,6 +804,12 @@
       <c r="B27" t="n">
         <v>0.5359313249656217</v>
       </c>
+      <c r="C27" t="n">
+        <v>0.5359873917660977</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.5360651249946017</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -656,6 +818,12 @@
       <c r="B28" t="n">
         <v>0.5363545051510435</v>
       </c>
+      <c r="C28" t="n">
+        <v>0.5364244116978364</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.5365119973549148</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -664,6 +832,12 @@
       <c r="B29" t="n">
         <v>0.5366249417735311</v>
       </c>
+      <c r="C29" t="n">
+        <v>0.5367248579058254</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.5368461201138164</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -672,6 +846,12 @@
       <c r="B30" t="n">
         <v>0.5362849285271666</v>
       </c>
+      <c r="C30" t="n">
+        <v>0.5363471195643129</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.5364306904197467</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -680,6 +860,12 @@
       <c r="B31" t="n">
         <v>0.5356816524774867</v>
       </c>
+      <c r="C31" t="n">
+        <v>0.535735351614243</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.5358099478080985</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -688,6 +874,12 @@
       <c r="B32" t="n">
         <v>0.5362940709814586</v>
       </c>
+      <c r="C32" t="n">
+        <v>0.5363423081325525</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.5364130002999727</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -696,6 +888,12 @@
       <c r="B33" t="n">
         <v>0.5364291394151116</v>
       </c>
+      <c r="C33" t="n">
+        <v>0.5364770928239149</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.5365470601376765</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -704,6 +902,12 @@
       <c r="B34" t="n">
         <v>0.5354611936240269</v>
       </c>
+      <c r="C34" t="n">
+        <v>0.5355112744689162</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.5355829438934834</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -712,6 +916,12 @@
       <c r="B35" t="n">
         <v>0.5364641983719224</v>
       </c>
+      <c r="C35" t="n">
+        <v>0.5365181587610082</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.5365902074428617</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -720,6 +930,12 @@
       <c r="B36" t="n">
         <v>0.536460259006542</v>
       </c>
+      <c r="C36" t="n">
+        <v>0.5365101951136005</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.5365795436740075</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -728,6 +944,12 @@
       <c r="B37" t="n">
         <v>0.53645456685983</v>
       </c>
+      <c r="C37" t="n">
+        <v>0.5365012213492445</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.5365677841002773</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -736,6 +958,12 @@
       <c r="B38" t="n">
         <v>0.5363695498031517</v>
       </c>
+      <c r="C38" t="n">
+        <v>0.5364222660525365</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.5364936243366843</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -744,6 +972,12 @@
       <c r="B39" t="n">
         <v>0.5363682192939797</v>
       </c>
+      <c r="C39" t="n">
+        <v>0.5364153942360392</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.5364824363110536</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -752,6 +986,12 @@
       <c r="B40" t="n">
         <v>0.5364646365324554</v>
       </c>
+      <c r="C40" t="n">
+        <v>0.5365123960446658</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.5365795736422031</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -760,6 +1000,12 @@
       <c r="B41" t="n">
         <v>0.5363148666703912</v>
       </c>
+      <c r="C41" t="n">
+        <v>0.536370596143761</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.5364435563375887</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -768,6 +1014,12 @@
       <c r="B42" t="n">
         <v>0.5363750266056851</v>
       </c>
+      <c r="C42" t="n">
+        <v>0.5364257799768755</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.5364958320266804</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -776,6 +1028,12 @@
       <c r="B43" t="n">
         <v>0.5363976080005006</v>
       </c>
+      <c r="C43" t="n">
+        <v>0.5364477168726911</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.5365172056774599</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -784,6 +1042,12 @@
       <c r="B44" t="n">
         <v>0.5364206910473903</v>
       </c>
+      <c r="C44" t="n">
+        <v>0.5364695363626101</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.5365378044529726</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -792,6 +1056,12 @@
       <c r="B45" t="n">
         <v>0.5364582183934868</v>
       </c>
+      <c r="C45" t="n">
+        <v>0.5365001660932991</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.5365636054890455</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -800,6 +1070,12 @@
       <c r="B46" t="n">
         <v>0.5352385629746671</v>
       </c>
+      <c r="C46" t="n">
+        <v>0.5352856582275513</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.5353521718817316</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -808,6 +1084,12 @@
       <c r="B47" t="n">
         <v>0.5354109191607849</v>
       </c>
+      <c r="C47" t="n">
+        <v>0.5354570848093086</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.5355230733161905</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -816,6 +1098,12 @@
       <c r="B48" t="n">
         <v>0.5354981347063579</v>
       </c>
+      <c r="C48" t="n">
+        <v>0.5355451998192071</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.5356115871115595</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -824,6 +1112,12 @@
       <c r="B49" t="n">
         <v>0.5356288248558073</v>
       </c>
+      <c r="C49" t="n">
+        <v>0.5356772906115843</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.5357447224829965</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -832,6 +1126,12 @@
       <c r="B50" t="n">
         <v>0.5359511685246713</v>
       </c>
+      <c r="C50" t="n">
+        <v>0.5360027190297509</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.536072703205406</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -840,6 +1140,12 @@
       <c r="B51" t="n">
         <v>0.5355060303488404</v>
       </c>
+      <c r="C51" t="n">
+        <v>0.5355534453757604</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.5356200676809874</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -848,6 +1154,12 @@
       <c r="B52" t="n">
         <v>0.5355060303488404</v>
       </c>
+      <c r="C52" t="n">
+        <v>0.5355534453757604</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.5356200676809874</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -856,6 +1168,12 @@
       <c r="B53" t="n">
         <v>0.5353487751291207</v>
       </c>
+      <c r="C53" t="n">
+        <v>0.5353939555408879</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.5354592564425118</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -864,6 +1182,12 @@
       <c r="B54" t="n">
         <v>0.5358998750394122</v>
       </c>
+      <c r="C54" t="n">
+        <v>0.5359486263713028</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.5360165555404894</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -872,6 +1196,12 @@
       <c r="B55" t="n">
         <v>0.5353970395149573</v>
       </c>
+      <c r="C55" t="n">
+        <v>0.5354439520636209</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.5355102948277101</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -880,6 +1210,12 @@
       <c r="B56" t="n">
         <v>0.5354563583341314</v>
       </c>
+      <c r="C56" t="n">
+        <v>0.5355043487443417</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.5355716510717057</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -888,6 +1224,12 @@
       <c r="B57" t="n">
         <v>0.5354316587708153</v>
       </c>
+      <c r="C57" t="n">
+        <v>0.535476219188025</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.5355413465345977</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -896,6 +1238,12 @@
       <c r="B58" t="n">
         <v>0.5353318858047691</v>
       </c>
+      <c r="C58" t="n">
+        <v>0.5353796244312502</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.535446510518618</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -904,6 +1252,12 @@
       <c r="B59" t="n">
         <v>0.5355280261352371</v>
       </c>
+      <c r="C59" t="n">
+        <v>0.5355761490338334</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.5356431729765231</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -912,6 +1266,12 @@
       <c r="B60" t="n">
         <v>0.5357263621236518</v>
       </c>
+      <c r="C60" t="n">
+        <v>0.5357763186114771</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.5358447897093073</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -920,6 +1280,12 @@
       <c r="B61" t="n">
         <v>0.5362229381312084</v>
       </c>
+      <c r="C61" t="n">
+        <v>0.5362720065193419</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.5363403684556558</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -928,6 +1294,12 @@
       <c r="B62" t="n">
         <v>0.5352824756852338</v>
       </c>
+      <c r="C62" t="n">
+        <v>0.5353243863411231</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.5353873714697766</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -936,6 +1308,12 @@
       <c r="B63" t="n">
         <v>0.5356735115751214</v>
       </c>
+      <c r="C63" t="n">
+        <v>0.5357211507969575</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.5357869433181602</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -944,6 +1322,12 @@
       <c r="B64" t="n">
         <v>0.5355006050343937</v>
       </c>
+      <c r="C64" t="n">
+        <v>0.5355471533352804</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.5356129074385064</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -952,6 +1336,12 @@
       <c r="B65" t="n">
         <v>0.535960418288416</v>
       </c>
+      <c r="C65" t="n">
+        <v>0.5360113219638556</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.5360805971443338</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -960,6 +1350,12 @@
       <c r="B66" t="n">
         <v>0.5355285028881346</v>
       </c>
+      <c r="C66" t="n">
+        <v>0.5355717010481679</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.5356353707818866</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -968,6 +1364,12 @@
       <c r="B67" t="n">
         <v>0.5355210775060133</v>
       </c>
+      <c r="C67" t="n">
+        <v>0.535567481092782</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.5356339910646502</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -976,6 +1378,12 @@
       <c r="B68" t="n">
         <v>-0.9492832687400758</v>
       </c>
+      <c r="C68" t="n">
+        <v>-0.9514468273797816</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-0.9544906276968208</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -984,6 +1392,12 @@
       <c r="B69" t="n">
         <v>-0.9645473972299093</v>
       </c>
+      <c r="C69" t="n">
+        <v>-0.9671378262913419</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-0.9704622289297139</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -992,6 +1406,12 @@
       <c r="B70" t="n">
         <v>-0.9512726269995847</v>
       </c>
+      <c r="C70" t="n">
+        <v>-0.9535636076584509</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-0.9567300074112801</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1000,6 +1420,12 @@
       <c r="B71" t="n">
         <v>-0.9617234328579791</v>
       </c>
+      <c r="C71" t="n">
+        <v>-0.9636353632710584</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-0.966381311490101</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1008,6 +1434,12 @@
       <c r="B72" t="n">
         <v>-0.9778626316643401</v>
       </c>
+      <c r="C72" t="n">
+        <v>-0.9795235316625227</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-0.9821865671516341</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1016,6 +1448,12 @@
       <c r="B73" t="n">
         <v>-0.9345267966897988</v>
       </c>
+      <c r="C73" t="n">
+        <v>-0.9367627950892676</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-0.9398474637619809</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1024,6 +1462,12 @@
       <c r="B74" t="n">
         <v>-0.9251787817292101</v>
       </c>
+      <c r="C74" t="n">
+        <v>-0.9271855238868191</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-0.9301326183866607</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1032,6 +1476,12 @@
       <c r="B75" t="n">
         <v>-0.9398233468353965</v>
       </c>
+      <c r="C75" t="n">
+        <v>-0.9423190766250696</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-0.9454782516828942</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1040,6 +1490,12 @@
       <c r="B76" t="n">
         <v>-0.9484559924209793</v>
       </c>
+      <c r="C76" t="n">
+        <v>-0.9514859547735716</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-0.9550853173437365</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1048,6 +1504,12 @@
       <c r="B77" t="n">
         <v>-0.9640612600037802</v>
       </c>
+      <c r="C77" t="n">
+        <v>-0.9662753236354011</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-0.9693820532231004</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1056,6 +1518,12 @@
       <c r="B78" t="n">
         <v>-0.9712728222026284</v>
       </c>
+      <c r="C78" t="n">
+        <v>-0.9719609476459544</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-0.9740023672648296</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1064,6 +1532,12 @@
       <c r="B79" t="n">
         <v>-0.9774441920704157</v>
       </c>
+      <c r="C79" t="n">
+        <v>-0.9793631941770307</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-0.9822365850586818</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1072,6 +1546,12 @@
       <c r="B80" t="n">
         <v>-0.9654433901660853</v>
       </c>
+      <c r="C80" t="n">
+        <v>-0.9672774392345306</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-0.9701554449439972</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1080,6 +1560,12 @@
       <c r="B81" t="n">
         <v>-0.9615431531447112</v>
       </c>
+      <c r="C81" t="n">
+        <v>-0.9633199199182878</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-0.9660671126751891</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1088,6 +1574,12 @@
       <c r="B82" t="n">
         <v>-0.9776679814079182</v>
       </c>
+      <c r="C82" t="n">
+        <v>-0.9778974065069248</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-0.9796449130857831</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1096,6 +1588,12 @@
       <c r="B83" t="n">
         <v>-0.9706638618229267</v>
       </c>
+      <c r="C83" t="n">
+        <v>-0.9721831182778098</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-0.9747811737456847</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1104,6 +1602,12 @@
       <c r="B84" t="n">
         <v>-0.967116380622829</v>
       </c>
+      <c r="C84" t="n">
+        <v>-0.969358585040839</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-0.972506022229066</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1112,6 +1616,12 @@
       <c r="B85" t="n">
         <v>-0.9686281355770761</v>
       </c>
+      <c r="C85" t="n">
+        <v>-0.9704506698358171</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-0.9733048800075796</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1120,6 +1630,12 @@
       <c r="B86" t="n">
         <v>-0.9881440675668295</v>
       </c>
+      <c r="C86" t="n">
+        <v>-0.9891645372369787</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-0.9913905873210606</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1128,6 +1644,12 @@
       <c r="B87" t="n">
         <v>-0.9643733532405609</v>
       </c>
+      <c r="C87" t="n">
+        <v>-0.9656913009488386</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-0.9681680805844621</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1136,6 +1658,12 @@
       <c r="B88" t="n">
         <v>-0.8912635526884423</v>
       </c>
+      <c r="C88" t="n">
+        <v>-0.9100591885997461</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-0.9376008531195036</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -1144,6 +1672,12 @@
       <c r="B89" t="n">
         <v>-3.141967137423207</v>
       </c>
+      <c r="C89" t="n">
+        <v>-3.18738390919688</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-3.228278215386023</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -1152,6 +1686,12 @@
       <c r="B90" t="n">
         <v>-1.03732308653745</v>
       </c>
+      <c r="C90" t="n">
+        <v>-1.036993097345076</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-1.042817626801039</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -1160,6 +1700,12 @@
       <c r="B91" t="n">
         <v>-5.593207175461554</v>
       </c>
+      <c r="C91" t="n">
+        <v>-5.405498348608983</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-5.296777681448624</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -1168,6 +1714,12 @@
       <c r="B92" t="n">
         <v>-0.5128803183673105</v>
       </c>
+      <c r="C92" t="n">
+        <v>-0.5654601192167822</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-0.6098094361497022</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -1176,6 +1728,12 @@
       <c r="B93" t="n">
         <v>-0.774914467807162</v>
       </c>
+      <c r="C93" t="n">
+        <v>-0.8045569809691272</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-0.8460656070701782</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -1184,6 +1742,12 @@
       <c r="B94" t="n">
         <v>-1.176747422220106</v>
       </c>
+      <c r="C94" t="n">
+        <v>-1.183014763830282</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-1.191167373829822</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -1192,6 +1756,12 @@
       <c r="B95" t="n">
         <v>-0.3194285486295991</v>
       </c>
+      <c r="C95" t="n">
+        <v>-0.4928956974489407</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-0.6185141034950055</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -1199,6 +1769,12 @@
       </c>
       <c r="B96" t="n">
         <v>-1.426142615764837</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-1.42259026076954</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-1.430230788315114</v>
       </c>
     </row>
   </sheetData>
